--- a/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing, and Trade will now come to order. The chair recognizes himself for 5 minutes for an opening statement.    Good morning all, and welcome to today's Disrupter Series hearing on self-driving cars, a groundbreaking technological development that has the potential to completely transform and redefine the vehicle and transportation system that we know and understand today.    Because this may be the last time that we have the privilege of having Dr. Rosekind before our subcommittee, let me first thank him for his service. He has always cooperated with this committee and we have continued to improve the agency, the recall process and, although it has been a big task, I believe improve safety. Thank you, Dr. Rosekind, for your service.    Self-driving cars promise to be the most significant automobile-related safety development in our lifetimes. This hearing will kick off what I expected to be a major focus of this subcommittee really for years to come and the reason is simple. Last year, automobile-related fatalities were around 35,000 and rose for the first time in nearly a decade. My home State of Texas was about ten percent of that: 3,516. The vast majority of those fatalities are still related to human behavior. Already, we have heard that fatalities are up again for the first half of this year. Truly self-driving cars are not about to be deployed in any great numbers anytime soon but the sooner we can safely get them to market, the sooner we can start saving lives. I, for one, am not among those who are worried that the adoption of this new technology will outpace safety. It will not be broadly adopted before it is ready. Our job is to be really smart and identify a path forward where the government can provide a cop on the beat for the industry and respond quickly where safety incidents arise. But we cannot let the government paralyze the very innovation that promises to make us safer.    I think National Highway Traffic Safety Administration's recent guidance is well-meaning. We obviously worry greatly about its implementation. Waiting for the government to approve technology is never a good formula. That said, we must remain vigilant in areas like cybersecurity where industry must be held accountable if they are not taking reasonable measures.    In addition to safety, self-driving cars promise a reduction in fuel emissions and energy consumption as a result of improved mobility and more efficient traffic flows. Self-driving vehicles may also allow for more efficient land use instead of wasting resources on parking in city lots. We can also expect to see an increase in transport and mobility opportunities such as ride-hailing and rise-sharing services; opportunities for labor cost savings; improved transportation access for disabled, elderly, and underserved populations; and other enhancements that improve the societal and economic welfare of communities across the country. This is what makes the development and deployment of autonomous cars so exciting: their impact will be virtually limitless.    As Dean Kamen reminded all of us at our last Disrupter Series hearing, we cannot afford to let the perfect be the enemy of the good. That means allowing innovators to innovate, allow them to develop the technology and give them the flexibility to test its potential. Preemptive action on the part of regulators before gaining a full understanding or appreciation of self-driving cars may lead to unintended consequences that limit the capabilities of this emerging technology and its promised life-saving, economic, and societal benefits.    I want to thank our witnesses for taking the time to inform us about this technology and I look forward to a thoughtful and engaging discussion.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman. And Dr. Rosekind, I want to say thank you to you. I join the chairman in thanking you for your service and for taking the time to be here.    The issue that we are looking at today and as a part of our Disrupter Series is something that is really important to my constituents in Tennessee because you have the General Motors Spring Hill Plant that is in my district. They are doing much of the green tech innovation. You also have the Nissan North America that is located in my district and then on the outskirts of our district, we have the Toyota Bodine Engine plant.    Now, as I talked to the innovators and the engineers that are working on these next generation concepts, they repeatedly remind me that automobiles are now driving computers and that we need to recognize that and be mindful of it.    And as we look at the Internet of things, of course it is well-placed but as we view this, we also view the necessity for safety and the technology that will make cars safer or help to make them safer will bring forward some of the driverless components, have those interface with the marketplace. Those are issues that are going to be important to us. Reducing fatalities on the road is something that we are very interested in. And when you hear that the self-driving or driverless-directed components can reduce, has the potential to reduce fatalities by 90 percent, that is something, as a mother and a grandmother, that really interests me because we all want to have those opportunities to make vehicles safer.    So, I think you for the time, Mr. Chairman. I thank you for going ahead and moving forward with this hearing and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rosekind</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rosekind. Chairman Burgess, Ranking Member Schakowsky, members of the committee, thank you for holding this meeting and for inviting me to testify.    At NHTSA, our mission is to save lives on America's roadways, and for 50 years we have carried out that mission by writing and enforcing regulations to make vehicles safer, fighting against drunk driving, building a national consensus about seatbelt use, and so many other efforts that have saved hundreds of thousands of Americans on our roadways but we have far more work to do and that work can be measured by some very alarming numbers.    In 2015, we lost 35,092 people on our public roads. And at NHTSA we know that that is not just a number. Those are mothers and fathers, brothers and sisters, coworkers, friends, colleagues. And the problem is getting worse. Last month, we announced that roadway fatalities in the first half of this year are up over ten percent.    And it is against this backdrop that the Department of Transportation, under the leadership of Secretary Anthony Foxx, has been working so hard on our efforts to accelerate the safe deployment of automated vehicle technologies. Because while automated vehicles carry enormous potential to transform mobility and reshape our transportation system, it is their awesome potential to revolutionize roadway safety that has us to motivated.    And there is one more number that helps explain why. That number is 94. That is the percentage of crashes that can be tied back to a human choice or error. That is a choice to speed or drive drunk, to send a text message from behind the wheel, or misjudge the stopping distance. That 94 percent represents the untold potential of automated vehicle safety technologies. We envision a future where advanced technologies not only help reduce crashes but a world with fully self-driving cars that hold the potential to eliminate traffic fatalities altogether.    The Federal Automated Vehicles Policy, which the Department issued on September 20th, is the world's first comprehensive government action to guide the safe and efficient development and deployment of these technologies.    And the policy covers four areas: One, vehicle performance guidance for automakers, tech companies, researchers and other developers, testers, and deployers of automated vehicle technologies; two, a model state policy to build a consistent national framework for the testing and operation of automated vehicles; three, an exploration of the use of our current regulatory tools that can be used to advance these technologies; and four, a discussion of possible new tools that the Federal government may need to promote the safe deployment of advanced technologies as the industry continues to develop.    I would like to share just a few thoughts about our approach. For 50 years, our traditional approach has largely been reactive. NHTSA prescribed safety standards and then responds to problems as they arise.    A traditional method of regulating these new technologies would be to engage solely in the rulemaking process, writing new regulations that prescribe specific standards, and typically, take years to take effect. Our view is that that approach would be slow. It would stymie innovation and it would stall the introduction of these new safety technologies.    Our policy takes a different path built on proactive safety which will better serve both safety and innovation. This policy allows us to work with automakers and developers on the front end to ensure there are sound approaches to safety throughout the entire development process.    This is a new approach and it is going to take some adjustment for everyone involved but we are confident that it will help us to accomplish two specific goals: first, to make sure that new technologies are deployed safely; and second, to make sure we don't get in the way of innovation. Our approach is not prescriptive. It does not tell developers how they must provide safety but, instead, builds a transparent and proactive approach to ensure that they are properly addressing the critical safety areas.    But that future is not without threats. As President Obama wrote when announcing the policy, ``the quickest way to slam the brakes on innovation is for the public to lose confidence in the safety of new technologies. Both government and industry have a responsibility to make sure that doesn't happen.''    It is our view the best way we can build that public confidence is by working together, showing the public that the government is on the side of innovation and that the industry is on the side of safety.    I will submit the balance of my statement for the record and I look forward to taking your questions. Thank you.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I thank you, Mr. Chairman. I really apologize for being late this morning and I thank you for accommodating that and I look forward to the questions that we can ask of our witness.    I first want to take a moment to recognize a great loss in the auto safety community. On Thursday, Clarence Ditlow of the Center for Auto Safety passed away after a battle with cancer. For 40 years, Clarence led the Center for Auto Safety, where he was a tireless advocate for stronger and stronger auto safety standards. He fought for Lemon Laws to ease return of defective vehicles in all 50 states. And if you have ever had a recall on your vehicle, there is a decent chance Clarence was somehow involved in pushing the National Highway Traffic Safety Administration and automakers to take action. He provided tremendous insight to lawmakers over the years, including, as a witness before this very subcommittee.    Clarence continued fighting for consumers until his final days. As recently as September, he was working with my office on reducing the number of used cars sold with open recalls. He even weighed in on today's topic. In August, he wrote an op-ed on the importance of strong safety standards for self-driving cars. Clarence has an outstanding legacy but I know he saw much work still to be done. I can think of no better a tribute than to continue his fight to improve auto safety and I hope we can do so on this subcommittee.    Protecting consumers must be the key focus as we consider today's topic, self-driving cars. A car without a human driver could be an exciting development or a frightening proposition. Which one it is depends on whether we take the correct approach to the development of this technology.    One of the key arguments in favor of self-driving cars is safety. According to NHTSA, 94 percent of car crashes are caused, in part, by driver error. Automation does have the potential to help, ensuring that autonomous vehicles improve safety requires thorough testing and oversight. We must evaluate not only how the vehicles' features work but also the effect of those features on human behavior.    I appreciate NHTSA's efforts to be proactive in its approach to autonomous vehicles and I look forward to learning more about how its policy framework will work in practice.    As we think about the long-term potential of safe-driving cars, we also need to consider the intermediate challenge. We are not going to shift to 100 percent self-driving vehicles overnight. Even if this technology is adopted relatively quickly, we will see a transition period where traditional semi-autonomous and fully autonomous vehicles share the road. All those vehicles and their passengers must be able to safely interact. We should also recognize the impact the self-driving cars have on those who drive for a living, taxi drivers, chauffeurs, delivery men and truck persons, and truckers.    Automakers are still working through safety issues with autonomous vehicles. For example, two self-driving Teslas crashed this year. Cybersecurity is another critical area for autonomous vehicles to be successful. Hacking a self-driving car could put lives in danger. Developers must take the utmost precautions to prevent the cars' systems from being compromised and providing failsafe mechanisms of security measures are ever ineffective.    Accidents involving self-driving vehicles raise new questions. How safe must self-driving cars be before we are comfortable having them on the road? When something goes wrong, when is it the fault of the manufacturer and when is it the fault of the user? NHTSA is adapting its traditional approach to auto safety as it considers the design, use, and safety features of self-driving vehicles. I welcome this initiative but I want to ensure that safety remains paramount.    I also want to hear a firm industry commitment to safety and cybersecurity. As I said, innovation in self-driving cars has tremendous potential. If done right, this technology could save lives, increase energy efficiency, and provide convenience for consumers. We must make sure that the right policies are in place to achieve the maximum benefit from this technology. And again, I appreciate your indulgence and I yield back.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. And good morning to you, Dr. Rosekind. I thank you and the other distinguished members of our panels who are appearing before us today on this important topic. And certainly, I thank you for your distinguished public service, Dr. Rosekind.    Automobile accidents accounted for over 35,000 fatalities in 2015, as you have indicated; 562 of those souls lost were from the State of New Jersey. By removing driver error, which accounts for the vast majority of these deaths, autonomous vehicles have the potential to be the single greatest achievement in auto safety in our lifetime, savings tens of thousands of lives each year.    As the subcommittee with jurisdiction over this topic and over the automotive industry, it is our job to make sure that innovation is allowed to occur and is not hindered by burdensome and unnecessary regulation while, of course, ensuring consumer safety which is paramount.    Dr. Rosekind, the guidance states that it is not intended for states to codify as legal requirements for the development, design, manufacture, testing, and operation of automated vehicles. That is on page 11 of the guidance. Do you think that states should be codifying the guidance as some have signaled they intend to do?</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman and thank you, Dr. Rosekind for being here today. We appreciate it a lot.    I understand the importance of self-driving cars, as we look for ways to dramatically improve traffic safety. In Kentucky, alone, we have had 761 fatalities last year. So, I know we need to better understand this issue.    But I had a chance to meet with the MTC truck driver training school in Elizabethtown. And of course, they are closely following the development of this new technology. And they brought this point up to me and I had never thought of it or considered it but I understand that there are homeland security issues, which have been raised in commercial transportation sector and it is this 15-point list on safety expectations for autonomous vehicles includes a point on digital security to prevent hacking into vehicle systems. I never would have thought of that until they brought that up.    And has NHTSA considered the broader homeland security issues surrounding digital security of autonomous vehicles?</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. The gentleman yields back. The chair recognizes the gentleman from California, Mr. Cardenas, 5 minutes for questions, please.</t>
   </si>
   <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you. And thank you, Mr. Chairman for having this hearing. It couldn't be soon enough because this is moving very, very fast and hopefully we will have tremendous success not only to the manufacturers but to the consumers and everybody in-between.    Dr. Rosekind, my first question has to do with the timing. There is so much out there. Some people are saying we are going to see these cars on the road soon in limited or mass production, et cetera. What does soon mean from what your vantage point is? Are we looking at 2017, 2018, 2025? And if so, what is the likelihood of us seeing mass utilization on our public roads?</t>
   </si>
   <si>
@@ -247,9 +226,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    As Congressman Lance just talked about New Jersey last year, there were 821 driving fatalities in Indiana alone, which was a 10 percent increase from the previous year. But they, obviously, we talk about these big numbers but one particularly that happened in my district, Susan Jordan, who is the principal of Amy Beverland Elementary School served in Lawrence, Indiana, was killed tragically by a school bus that rolled in front of her, as she pushed children out of the way. And so for many families who have lost loved ones, I would say the auto industry and ensuring that cars, and buses, and other vehicles are as safe as possible, we need to not stand in the way of this innovation, whether it is pedestrian detection, lane warnings, pre-collision assist that can eliminate the human error that could save lives like Principal Jordan's.    I want to ask a question, though, with respect to NHTSA's Federal Automated Vehicle Policy where you are requesting large amounts of data from the auto industry on the operation and the execution of the highly autonomous vehicle technologies that includes a lot of potentially sensitive information about businesses and consumers. But on the other hand, we recognize, and you have just talked about it in response to Congressman Guthrie's question, multiple attacks from whether it is foreign or domestic bad actors attempting to get that data.    Without going into great detail, what kind of protections does NHTSA plan to have to ensure that this sensitive information isn't getting into bad actors' hands?</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. Doctor, good to see you again. Thank you for the work you are doing here.    I want to kind of follow-up a little bit on what my colleague from Indiana was questioning about. I think clarity is, obviously, very important and we don't want to be over burdensome on new technology. We don't want to stifle the entrepreneur that is going to be out there that is going to be making the investment because this is investment. It is an investment in an unknown area knowing where the regulators are going to fall into.    But I think we all are looking for just an idea of where the floor is. So, if they are going to be investing, they can be investing in the right direction. And so I would like you to speak a little bit on that. Where do you feel like the floor is going to be so we can move forward with this technology? I will be honest with you, I am not a big fan of it. I like driving. I mean my wife drives an SUV that has got the adaptive cruise. I can't stand it. Every time I get close to a line, it vibrates on my back side because of the seat and it just scares the living daylights out of me but I get it. My wife loves it.    And so I see the need for it for those that like the idea. So, as the technology moves forward, if you could give us some direction on where you are moving so we can work with you on it.</t>
   </si>
   <si>
@@ -373,9 +346,6 @@
     <t>412421</t>
   </si>
   <si>
-    <t>Adam Kinzinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Thank you, Mr. Chairman. Just when you thought you were going to go home.    Thank you for holding the hearing today on autonomous vehicles. Next week is Thanksgiving or it is coming soon, I guess. Yes, next week. And as a country, we will put millions of miles on our vehicles. It reminds us that we need to do better as a nation to drive safer and reduce vehicle fatalities. As so many of our colleagues have pointed out, vehicle accidents are claiming too many lives and, as of late, that rate is growing in the wrong direction.    In Illinois, 998 lives were lost last year in vehicle accidents. Tragically, it is an increase of eight percent from the year before.    Like many in this room, I see great promise in how connected vehicles, assisted driving technology, and autonomous vehicle technology can play in reducing the number of vehicle deaths. I applaud NHTSA for laying out a framework that will allow automakers, software developers, and other stakeholders to blaze a path forward in transforming vehicles and making the roads in the future safer. I hope today's hearing is a starting point for our committee, as we consider the wide-ranging policy issues that autonomous vehicle technology touches.    But Dr. Rosekind, again, thank you for your service. Thank you for everything you have been doing. I would like to ask you about the Federal Automated Vehicles Policy released in September, as a few people have mentioned.    It mentions the possibility of convening the Commission to study liability and insurance issues and it also clearly states that insurance and liability apportionment are state responsibilities, as they are now and makes no argument for that change.    What role do you see auto insurance playing in the future?</t>
   </si>
   <si>
@@ -415,9 +385,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you so much. I appreciate it. Thank you, Mr. Chairman. I thank the panel for their testimony.    I understand that NHTSA is thinking about future regulations requiring manufacturers to submit a safety assessment letter. Do you think that the safety assessment letter, if required, would preempt state laws and regulations regarding design and performance of autonomous vehicles?</t>
   </si>
   <si>
@@ -451,45 +418,30 @@
     <t xml:space="preserve">    Mr. Burgess. Welcome back. Thank you all for your patience and I thank our panel for taking the time to be here today. We will move into the second panel for today's hearing. We will follow the same format as the first panel. Each witness has 5 minutes for an opening statement, followed by questions from members.    For our second panel, we have the following witnesses: Mr. Mitch Bainwol, President and CEO for the Alliance of Automobile Manufacturers; Mr. Kirk Steudle, Director at Michigan Department of Transportation; Ms. Laura MacCleery, Vice President of Consumer Policy and Mobilization at Consumer Reports; Ms. Ann Wilson, Senior Vice President at the Motor and Equipment Manufacturers Association; and Mr. Gary Shapiro, President and CEO at the Consumer Technology Association.    We do appreciate you all being here today. Mr. Bainwol, why don't we begin with you? You are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
-    <t>Bainwol</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bainwol. Thank you, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, thanks for having me back to testify today on behalf of 12 iconic automakers, who are engaged in a massive exercise in self-disruption.    I spent 8 years in the music industry as a digitization of the music wrecked business model and devastated property rights. There was little that industry could do. Autos are in a very different spot, we are manufacturers and technology companies and mobility providers and we are innovating rapidly.    Three converging trends are driving dynamic change. The first trend is the rapid emergence of crash avoidance technologies that will culminate in self-driving cars.    The second trend is the evolution of ride and car-sharing starting with Uber, Lyft, Car2Go, and others, but swiftly moving to a wide range of other models. Sharing will reduce ownership rates to some degree but also shorten fleet age.    And the third trend is the gradual evolution in power trains toward electrification that, in the present low gas cost context, is being driven more by policy mandates than by consumer demand.    Combined, these trends are changing mobility profoundly and as mobility changes, the overriding goal of my members share is to ensure that consumers are able to afford these vehicles that offer a higher efficiency and enhanced safety features. The faster we can safely and affordably move to the future, the better.    While the introduction of self-driving cars is just around the corner, the transition of full autonomy will take two generations. Moody's predicts these cars will not be a majority of the fleet until 2045 or ubiquitous until 2055.    But the important fact is that benefits already are materializing. First, safety: 99 percent of road fatalities are the result of behavioral issues, environmental circumstances, and infrastructure limitations, rather than car defects. Technology addresses many of these challenges by helping to avoid crashes altogether. Elon Musk says that moving too slowly will kill people. I might say it less provocatively and Tesla is not a member but he has a point. We need to lean forward.    Second, technology can reduce carbon and strengthen the environment both by mitigating congestion and by facilitating more efficient use of the automobile.    Third, technology can enhance access for the young, the old, the disabled, and the economically disadvantaged.    Fourth, individuals and businesses will benefit from time savings and meaningful productivity gains, helping society and the economy.    Fifth, the combination of lower per mile cost and higher cost utilization rates resulting from ride-sharing has the potential to reshape mass transit. For all of these reasons, most stakeholders believe accelerated deployment is highly desirable subject to ensuring a material net safety gain. But we also know that the traditional regulatory mechanisms can't handle the space of innovation.    Administrator Rosekind and Secretary Foxx put their fingers on this problem and deserve considerable credit for seeking a new approach, facilitating the proper mix of oversight and regulatory flexibility. It is not an easy puzzle and we understand that committee members will have different visions about what it means to be nimble and flexible while also offering predictability and stable roles.    We are carefully examining NHTSA's guidance and will formally respond a week from today at the deadline. That response will be shared with that committee. And we fully expect the Trump administration to put a stamp on this policy. Congress ought to as well.    The feds have traditionally regulated the car, the states, the driver. With autonomy, the car is the driver and that, in essence, creates static between the Federal and state obligations.    Perhaps the key objective behind NHTSA's recommendation was to provide federal leadership to avoid a patchwork of state rules. Yet, the early evidence is it still might be necessary to further strengthen the federal leadership. Some even have suggested that a state-level time out might be warranted.    A second key objective was to reduce federal regulatory rigidity and ambiguity. Some of the rigidity has been addressed with commitments to timely respond to requests for interpretations and exemptions but too much ambiguity remains. Policy often seems simple but when it gets to execution and compliance, that simplicity morphs into numbing complexity and complexity equals delay, higher costs and delayed social benefits.    Finally, another key objective was to provide mechanisms to better share data and learning to class both OEMs and tech providers. It is a prudent goal. We are not certain, however, that all contemplated obligations are feasible and productive.    Summing up, we appreciate this committee's initiative to help accelerate the smart introduction of these lifesaving carbon-reducing, economy-enhancing technologies. This is guidance, voluntary for now at the federal level and mandatory, effectively at the state level triggers this conversation. We welcome it because the stakes are high and the opportunity is enormous. Government must pave the way for technology deployment and must not, despite good intent, become an obstacle to realize in the brighter future of mobility.    I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. Mr. Steudle is recognized for 5 minutes, please, for an opening statement.</t>
   </si>
   <si>
-    <t>Steudle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Steudle. Thank you, Mr. Chairman and members of the committee. It is an opportunity to sit in front of you. I appreciate that opportunity to talk about something that is truly revolutionary in the transportation industry, that is, connected and autonomous and automated vehicles.    At the Michigan Department of Transportation, safety is paramount. It defines everything the department does, from road and bridge design, to managing worksites, to overseeing the work of contractors. Some 35,000 people have died on America's roads, as many of you have noted. In Michigan, that number was 963 last year. Today, it is 921. That is highest in the last couple of years. That is the equivalent of 350 airline crashes with 100 passengers. Imagine what the outcry would be if that was happening.    As has been said, 90 percent of the traffic deaths could be reduced with this technology and I think for that alone is the reason we should be pursuing this at a very advanced pace.    The exponential advent of technology shows no sign of slowing down. The technology both enables and demands multitasking. Despite the ever-evolving laws and prolific safety messages, distracted driving continues to cause more crashes and more injuries and deaths as a result of those crashes. Automakers have made tremendous strides in building safer vehicles, seatbelts, air bags, antilock brakes, lane control systems, adaptive cruise control, advanced braking systems, and the like.    But even while the technology and research continues to save lives, the discovery of new distractions offset the gain. Today, more than 68 percent of U.S. adults have a smart phone. That is up from 35 percent just 5 years ago and the use of electronic devices is just one of the categories in a growing list of driver distractions.    But I am not here to preach about driving distractions. If we refuse to accept the increasing number of our friends and loved ones that needlessly die in automobile accidents, we need to look for a solution and the solution is automated vehicles, a vehicle that removes the driver and the driver error.    While safety is the overriding imperative, there are other vital benefits to automated or driverless cars. Chief among them are the extension of the freedom that comes with personal mobility and personal mobility in our golden years. If any of you have had the misopportune or the unfortunate opportunity of being in a position to take the keys away from your parent or an elderly resident, you know how painful that can be. My state has one of the oldest populations in the country. According to the 2010 census, 14 percent of the residents were over the age of 65. Driverless cars offer us the opportunity to grant all this precious autonomy to our full range of residents, not just those between the ages of 16 and 80 or 85 or 90.    They also have the ability to fundamentally change the way that people and goods move. Ride sharing is already having an impact on urban life, as more people choose that option, freeing up their time and their disposable income. This presents many questions about the future land use, parking, consumption of fossil fuels, the evolution of public transit and many others.    I should emphasize some key things going on back in the state of Michigan. With overwhelming bipartisan support, the legislature last week adopted and sent to Governor Snyder a package of bills that will keep Michigan at the forefront of these developments. Chiefly, the bills do these things: they allow for complete autonomous operations on any road at any time, without a special license; they allow for truck platooning; they allow for on-demand automated networks, which are driverless Ubers, driverless Lyfts; and it creates a council on future mobility made up of industry participants from a broad range.    As for NHTSA, I think the agency has done a good job of identifying and distinguishing between the state and the Federal regulatory roles related to automated vehicles. States would regulate the driver or the operator. Those regulators currently vary by state, much like graduated drivers' licenses and the effects of penalties for impaired drivers. The Federal government has a long history of vehicle regulations for the OEMs, the original equipment manufacturers, and that should continue. But Michigan strongly disagrees with the proposed third-party certification process that would create a middle man, which would slow progress and the adoption of lifesaving innovations. It also would introduce a third party into the liability equations.    This technology is best tested and validated by those that have developed it and understand the technology. They should be responsible for what they include in the vehicles and not get rid of that responsibility by hiding behind a third-party tester.    Thank you for the opportunity to testify on this important topic. I applaud you for taking up this and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. Ms. MacCleery, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
-    <t>MacCleery</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. MacCleery. Thank you. Good morning, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee.    My name is Laura MacCleery and I work for Consumer Reports, an independent nonprofit that works side-by-side with consumers to create a fairer, safer, and healthier world.    I want to start by thanking Ranking Member Schakowsky in honoring the late Clarence Ditlow. As both a former board member of Consumer Reports and leader of the Center for Auto Safety, my friend and colleague, Clarence, made immeasurable contributions to vehicle safety and was responsible for countless lifesaving recalls. His dogged persistence was legendary. His accomplishments spanned decades.    At Consumer Reports, we consider it a privilege to carry forward his and our shared dedication to safer cars.    As we have heard, traffic deaths on U.S. roads are increasing, reversing a long-standing decline. We urgently must find ways to both prevent and reduce traffic deaths and injuries. It is critical to note at the outset that improvements to crashworthiness that would allow people to better survive crashes remain far from exhausted. For example, although the Research Safety Vehicle designed by NHTSA in the last 1970s was crash-safe at 50 miles per hour, today the minimum safety standard for frontal impact is only 30 miles per hour with 35 miles per hour testing in the new car assessment program. This occupant protection standard is one of several NHTSA performance standards that are badly out of date and should be upgraded.    If we know anything, it is that technology is imperfect. Making vehicles safer when they do crash should go hand-in-hand with making them smarter.    We certainly recognize the potential for crash avoidance technologies to also reduce traffic deaths. Consumer Reports Auto Testing Team has driven thousands of miles in cars that can steer within a lane and adjust speed automatically using increasingly prevalent technologies like automatic emergency braking and lane-keeping assist. We also have seen that these technologies are not perfect and vary in quality among manufacturers and that some raise novel risks. What we hear again and again in this context about safety gains is we are saying clearly that the safety benefit of fully self-driving vehicles are simply, at this point, not known.    There are real limits to current technologies. There is a handoff problem in communications with consumers and letting them know when they need to take over vehicle functioning. There is issues with user interface and with software updates that may or may not be clear to consumers who are using their vehicles. And there are profound and fully knotty ethical implications of algorithms.    A reality check is provided by our testing, which shows performance issues with current technologies in sunny, rainy, snowy, or icy conditions. That is a lot of weather to challenge these systems.    As this suggests, there is much work that needs to be done before cars drive themselves. Automated driving technologies cannot and should not be oversold, particularly when consumers still must be prepared to take over the controls. Failing to appropriately communicate the limits or design systems with appropriate checks on foreseeable use and misuse of systems can give consumers a false sense of security and even cost lives. As more vehicles with automated driving technologies hit the market, we will carefully evaluate them and report to consumers on their safety. For its part, NHTSA should ensure that companies put consumers first by collecting and publishing data and what has collected sufficient evidence by setting robust safety standards.    The agency has indicated the Federal Automated Vehicles Policy guidance is an initial regulatory framework. It covers a wide range of subjects but we think it is light on specific choices that companies should make to assure safety. We urge lawmakers to take three key steps. First, to recognize that NHTSA remains chronically under-resourced. To improve and ensure consumer trust in automated vehicles, the agency must receive its requested funding so it can independently and thoroughly assess the safety of these systems.    Members should also recognize a few fundamental steps needed to assure effective oversight of automated driving. Here are three: We call on companies first to give their safety data to NHTSA and the public. Dr. Rosekind indicated that the data would show what is best. That makes sense but right now, the safety benefits of autonomous driving are speculative and based on data held entirely by the companies. Regulators and consumers both deserve to know the basis the companies use to determine that an automated technology is safe, particularly if they are making claims that this technology performs more safely than human drivers.    Second, NHTSA's enforcement capability should be strengthened. NHTSA has the authority to deem automated system risks to be safety-related defects but its practical ability to get unsafe cars off the road quickly has long been limited and is challenged in a world of instant software updates. Congress should give the agency imminent hazard authority so that it can take immediate action.    Third, NHTSA and other relevant agencies must take a hard look at the risks of a lack of cybersecurity in vehicles. The recent Dyn attack raises the question of what must be done to safeguard consumers and this issue can't wait.    NHTSA has repeatedly requested imminent hazard authority, I will note, and it is part of Ranking Member Schakowsky's Vehicle Safety Improvement Act, which we support.    In conclusion, automated innovation is essential. It has included features with major benefits to consumer safety, such as automatic emergency braking. But our ambitions in this area must be balanced with accountability and a full view of how humans interact with this technology. Building public trust is critical. Public data, vigorous agency oversight, and attention to a total-vehicle and consumer-first approach will be needed to ensure that safety keeps pace with technological change.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentlelady. Ms. Wilson, you are recognized for 5 minutes, please, for an opening statement.</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wilson. Chairman Burgess, Ranking Member Schakowsky, members of the subcommittee, my name is Ann Wilson and I serve as the Senior Vice President of Government Affairs for the Motor and Equipment Manufacturers Association or MEMA.    Thank you for the invitation to testify before you today on automated vehicles and NHTSA's Automated Vehicle Policy.    MEMA is the leading international trade association of the fast-changing mobility industry. By directly employing more than 800,000 Americans and generating a total employment impact of 4.2 million jobs, MEMA member companies are the largest employer of manufacturing jobs in the U.S.    MEMA applauds NHTSA for developing the Federal Automated Vehicle Policy. Given the rapidly evolving advances in vehicle technologies, we believe this policy, as opposed to regulations, that clarifies a national framework with a clear role for the states sets pathways for all stakeholders to navigate the complexities of automated vehicle technologies.    We are currently working with our members to provide NHTSA with specific comments by November 22nd and we will provide those comments to the subcommittee.    We are also committed to a continuous dialogue with NHTSA on the AV policy. However, we urge NHTSA to clarify the policy in the near-term with the input received from the public listening sessions and the written comments.    Today, I wanted to lay out a few challenges and opportunities MEMA has already identified. First, MEMA would strongly urge the agency to treat test vehicles covered by the AV policy separately from production vehicles. Typically, these vehicles are company-owned and operated only by trained employees and are not intended for production and sale to the general public. For instance, it is not clear in the policy whether NHTSA intends component manufacturers or other entities should apply for exemptions for test vehicles in order to test and evaluate Level 2 through 5 systems on public roads.    With the rapid evolution of these technologies, time is critical. The process outlined in the AV policy for test vehicles, including the exemption process, would delay innovation.    We also have some serious concerns about the protection of manufacturers' intellectual property rights during the testing phase.    We are also seeking an additional clarification with respect to test vehicles. Under Section 24404 of the recently enacted FAST Act, OEMs can test and operate vehicles that do not meet Federal Motor Vehicle Safety Standards, provided they are not offered for sale. But this provision does not include component manufacturers and we would urge the committee to clarify this provision at the first opportunity.    Second, in 2015, MEMA and the Boston Consulting Group released a report examining the safety benefits of Advanced Driver Assistance Systems or ADAS technologies. The study found that these technologies can provide immediate safety benefits and formed a pathway, as you have heard, to a partially and fully automated vehicle fleet that could virtually eliminate traffic fatalities. But it is important to note that some of these ADAS technologies constitute the SAE Level 2 automated systems. These include technologies, as you have heard today, like AEB, adaptive cruise control, and others. Technology is currently available on a wide range of vehicles. MEMA urges NHTSA to further delineate the impact that the AV Policy has on Level 2 technologies.    Third, as previously recognized, NHTSA's AV Policy also applies to all vehicles. While much of the testimony you have heard today is directed towards the automotive industry, many of the opportunities and challenges apply to both passenger and commercial vehicles. The commercial vehicle component supplier members of MEMA are particularly concerned about the IP protection as safety systems and other new technologies are key differentiators for trucking fleets. There are many other parties in the commercial market who must be engaged in the development and implementation of AV Policy for all the challenges and benefits to be fully explored. We encourage NHTSA to continue interacting with those parties and we would encourage this committee to work with them, too.    Fourth, original equipment component suppliers do not always have complete visibility into the full scope of issues to properly assess performance. Once a component or a system has been integrated into a protection vehicle, it is important that all stakeholders have a clear understanding of NHTSA's expectations of the roles and responsibilities, particularly for OEMs and component manufacturers. These distinctions should be clarified and articulated in the context of the policy.    And finally, MEMA encourages NHTSA to take the lead with their global counterparts to cooperate in developing an AV policy beyond the U.S. for the benefit of the global community. The earlier we get ahead of opportunities to align, the better it will be for all stakeholders, government, industry, and the driving public.    In conclusion, the members of MEMA are committed to vehicle safety and are at the forefront of developing additional lifesaving technologies.    We appreciate this opportunity to testify and I would be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentlelady.    Mr. Shapiro, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
-    <t>Shapiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shapiro. I am Gary Shapiro, President and CEO of the Consumer Technology Association. I just want to thank you, Mr. Chairman Burgess and Ranking Member Schakowsky, and members of the subcommittee as well for inviting me to testify on this important issue.    I also want to thank you for hosting these Disrupter Series. This is really important. You have brought attention to new technologies like 3D printing and drones, which are fundamentally changing the world. Actually, at CTA we created a Disruptive Innovation Council last year and it supports those companies that are developing technologies and services that are disrupting traditional business models, actually creating new markets, and, frankly, delighting consumers. So, this is a good thing. That is what this country was based on is positive disruption.    And that is what we are talking about here. We actually represent over 2,200 American consumer technology companies. We own and produce the CES. It is the world's largest business, coolest, funnest event. You are all invited to attend. If you come to Las Vegas next January you will see literally 3,900 companies, including 300 of them that are focused on connected vehicles, driverless cars. Most of the major auto companies are there as well. And you will see the future right there in one place.    We also, as an association, represent much of the vehicle technology ecosystem. Our member companies are fundamentally revolutionizing the transportation network and are well on their way to making self-driving vehicles a reality.    This comes about because the internet, wireless, and sensing technology are poised to revolutionize the auto sector, as they have other industry sectors. While these changes disrupt all business models, they lead to economic growth, a better standard of living, improved health and safety, and new opportunities to expand entrepreneurship, provide American leadership and solve real-world major problems.    You have heard over and over today about self-driving cars that will save over 30,000 lives a year and prevent hundreds of thousands of injuries. They will also free up our time, enhance the travel business so more Americans will use cars to travel further and see America and actually change our view of cars so they will be a service, rather than a product.    So, I think what we should do is set a goal of cutting American road fatalities by a certain date and challenge interested groups to gather and forge a path forward to solve the many legal, legislative and standardization uncertainties to achieve that outcome.    One question that has already come up today and people are asking is whether this technology must be perfect before it deployed. Perfection may be an unreachable goal but any significant improvement over the status quo of 35,000 annual deaths should be welcome. In fact, though, as you have hard, driver assist technology is already saving lives, avoiding accidents, and paving the way for driverless innovations. We welcome and need technologies that help drowsy or inattentive drivers stay focused or provide specific responses, such as automatic braking and lane drift avoidance, all of which are available in newer models today.    Further, the aftermarket industry does provide a valuable service in allowing consumers to add lifesaving technology to vehicles they already own and that is important because if we wait for the whole fleet to turn over, we are waiting 20 or 30 years to save those thousands of lives of each year.    Our research we have done with consumers confirms there is strong interest in the early stages of self-driving technology. We did a recent study with 2,000 consumers and three in four are excited about the benefits of self-driving cars. More than 60 percent are interested in replacing the car or truck they own with a completely self-driving vehicle.    Of course, you have heard, transportation is a national system. We need uniformity to ensure a national single market, promote safety, and provide consistency.    CTA was encouraged by NHTSA's Federal Automated Vehicles Policy and its recognition of the need for self-driving vehicles. More, NHTSA recognized the importance of flexibility for the industry to continue to innovate with appropriate supervision at the state and Federal level. We appreciate the leadership, however, we do have several concerns with the policy, which we will be filing formal comments on.    While DOT is a primary regulator for self-driving vehicles, other agencies also have a role. Representatives from the NTIA, the FCC, FDC, DoD, and others have asked how they can provide input for their needs, contribute their expertise on spectrum, interoperability, cybersecurity, and privacy, and simply stay informed.    And I applaud the DOT for taking a leadership role and seeking broad input but consensus, national consensus on self-driving vehicles is so important that we need all the believers and the stakeholders together working towards a national goal of saving lives and resolving impediments to get there. This action requires government facilitation and leadership at the very top. We did this, and I was personally involved with our shift to high-definition television, and also did it as we created commercial rules for the internet. The U.S. led the world in both those endeavors because we had industry together, all the interested parties working with government. The result for both has been huge boots in U.S. leadership in content creation and commercial internet ventures.    Self-driving vehicles would be our gift to future generations. They will result in fewer deaths and injuries, a cleaner environment, more freedom and greater mobility. If industry and government work together on a shared national goal, we can remove every impediment and stop the carnage on American roads.</t>
   </si>
   <si>
@@ -674,9 +626,6 @@
   </si>
   <si>
     <t>400308</t>
-  </si>
-  <si>
-    <t>Frank Pallone, Jr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Both the tech industry and the automotive industry have been working towards fully automated vehicles for years now but many consumers remain unaware of the technology and its potential to decrease fatalities, improve mobility for seniors and the disabled, and improve daily life for Americans.    So, I wanted to ask Ms. MacCleery, there has been a lot of attention paid in Congress and in the media on autonomous cars. We have heard claims that these cars will be available for purchase soon but we have also heard that fully autonomous cars are decades away. What is the realistic time line for adoption and is this something consumers should be paying attention to now or is this decades away?</t>
@@ -1159,11 +1108,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1185,11 +1132,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1209,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1237,11 +1180,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1261,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1289,11 +1228,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1313,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1341,11 +1276,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1365,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1391,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1417,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1443,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1469,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1495,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1521,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1547,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1573,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1601,11 +1516,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1625,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1651,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1677,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1703,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1729,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1757,11 +1660,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1781,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1807,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1833,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1859,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1885,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1911,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1937,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1963,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1989,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2015,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2041,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2067,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2093,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2119,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2145,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2171,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2197,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2223,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2249,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2277,11 +2140,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2301,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2327,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2353,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2379,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2405,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2431,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2457,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2485,11 +2332,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2509,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2535,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2561,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2587,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2613,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2639,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2665,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2691,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2717,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2743,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2769,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2795,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2821,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2847,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2873,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2899,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2925,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2951,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2977,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3005,11 +2812,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3029,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3055,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3081,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3107,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3133,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3159,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3185,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3211,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3237,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>99</v>
-      </c>
-      <c r="H82" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3265,11 +3052,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3289,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3317,11 +3100,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3341,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3369,11 +3148,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3393,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3421,11 +3196,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3445,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3473,11 +3244,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3497,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3523,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3549,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3575,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3601,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
-      </c>
-      <c r="G96" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3627,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3653,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3679,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3705,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>118</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
-      <c r="H100" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3731,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3757,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3785,11 +3532,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3809,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3835,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3861,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
-      </c>
-      <c r="G106" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3887,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3913,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3939,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3965,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3991,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4017,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4045,11 +3772,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4071,11 +3796,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4095,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>145</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4123,11 +3844,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4147,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4175,11 +3892,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4199,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4227,11 +3940,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4251,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4279,11 +3988,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4303,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4331,11 +4036,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4355,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
-      </c>
-      <c r="G125" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4381,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
         <v>145</v>
-      </c>
-      <c r="H126" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4407,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
-      </c>
-      <c r="G127" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4433,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4459,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
-      </c>
-      <c r="G129" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4485,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4511,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
-      </c>
-      <c r="G131" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4537,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4563,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
-      </c>
-      <c r="G133" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4589,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4617,11 +4300,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4641,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4667,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4693,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4719,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4745,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4771,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4797,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4823,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4849,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4875,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4901,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4927,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4953,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4979,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5005,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5031,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5057,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5083,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5109,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5135,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5161,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5187,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5213,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5239,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5265,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5291,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5317,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5343,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5369,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5395,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5421,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5449,11 +5068,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5473,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>98</v>
-      </c>
-      <c r="G168" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5499,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5525,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>98</v>
-      </c>
-      <c r="G170" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5551,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5577,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>98</v>
-      </c>
-      <c r="G172" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5603,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5629,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>98</v>
-      </c>
-      <c r="G174" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5655,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5681,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>98</v>
-      </c>
-      <c r="G176" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5707,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5733,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>98</v>
-      </c>
-      <c r="G178" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5759,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5785,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>98</v>
-      </c>
-      <c r="G180" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5811,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5837,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>98</v>
-      </c>
-      <c r="G182" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5863,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5889,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>98</v>
-      </c>
-      <c r="G184" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5917,11 +5500,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5941,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>219</v>
-      </c>
-      <c r="G186" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5967,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5993,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>219</v>
-      </c>
-      <c r="G188" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6019,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6045,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>219</v>
-      </c>
-      <c r="G190" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6071,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6097,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>219</v>
-      </c>
-      <c r="G192" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6123,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6149,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>219</v>
-      </c>
-      <c r="G194" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6175,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6201,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>219</v>
-      </c>
-      <c r="G196" t="s">
-        <v>220</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6229,11 +5788,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6253,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>145</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6281,11 +5836,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6305,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>148</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6331,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>151</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6357,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6385,11 +5932,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6409,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6437,11 +5980,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6461,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6489,11 +6028,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6513,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>145</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6541,11 +6076,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6565,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>157</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6593,11 +6124,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6619,11 +6148,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6645,11 +6172,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The subcommittee on Commerce, Manufacturing, and Trade will now come to order. The chair recognizes himself for 5 minutes for an opening statement.    Good morning all, and welcome to today's Disrupter Series hearing on self-driving cars, a groundbreaking technological development that has the potential to completely transform and redefine the vehicle and transportation system that we know and understand today.    Because this may be the last time that we have the privilege of having Dr. Rosekind before our subcommittee, let me first thank him for his service. He has always cooperated with this committee and we have continued to improve the agency, the recall process and, although it has been a big task, I believe improve safety. Thank you, Dr. Rosekind, for your service.    Self-driving cars promise to be the most significant automobile-related safety development in our lifetimes. This hearing will kick off what I expected to be a major focus of this subcommittee really for years to come and the reason is simple. Last year, automobile-related fatalities were around 35,000 and rose for the first time in nearly a decade. My home State of Texas was about ten percent of that: 3,516. The vast majority of those fatalities are still related to human behavior. Already, we have heard that fatalities are up again for the first half of this year. Truly self-driving cars are not about to be deployed in any great numbers anytime soon but the sooner we can safely get them to market, the sooner we can start saving lives. I, for one, am not among those who are worried that the adoption of this new technology will outpace safety. It will not be broadly adopted before it is ready. Our job is to be really smart and identify a path forward where the government can provide a cop on the beat for the industry and respond quickly where safety incidents arise. But we cannot let the government paralyze the very innovation that promises to make us safer.    I think National Highway Traffic Safety Administration's recent guidance is well-meaning. We obviously worry greatly about its implementation. Waiting for the government to approve technology is never a good formula. That said, we must remain vigilant in areas like cybersecurity where industry must be held accountable if they are not taking reasonable measures.    In addition to safety, self-driving cars promise a reduction in fuel emissions and energy consumption as a result of improved mobility and more efficient traffic flows. Self-driving vehicles may also allow for more efficient land use instead of wasting resources on parking in city lots. We can also expect to see an increase in transport and mobility opportunities such as ride-hailing and rise-sharing services; opportunities for labor cost savings; improved transportation access for disabled, elderly, and underserved populations; and other enhancements that improve the societal and economic welfare of communities across the country. This is what makes the development and deployment of autonomous cars so exciting: their impact will be virtually limitless.    As Dean Kamen reminded all of us at our last Disrupter Series hearing, we cannot afford to let the perfect be the enemy of the good. That means allowing innovators to innovate, allow them to develop the technology and give them the flexibility to test its potential. Preemptive action on the part of regulators before gaining a full understanding or appreciation of self-driving cars may lead to unintended consequences that limit the capabilities of this emerging technology and its promised life-saving, economic, and societal benefits.    I want to thank our witnesses for taking the time to inform us about this technology and I look forward to a thoughtful and engaging discussion.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman. And Dr. Rosekind, I want to say thank you to you. I join the chairman in thanking you for your service and for taking the time to be here.    The issue that we are looking at today and as a part of our Disrupter Series is something that is really important to my constituents in Tennessee because you have the General Motors Spring Hill Plant that is in my district. They are doing much of the green tech innovation. You also have the Nissan North America that is located in my district and then on the outskirts of our district, we have the Toyota Bodine Engine plant.    Now, as I talked to the innovators and the engineers that are working on these next generation concepts, they repeatedly remind me that automobiles are now driving computers and that we need to recognize that and be mindful of it.    And as we look at the Internet of things, of course it is well-placed but as we view this, we also view the necessity for safety and the technology that will make cars safer or help to make them safer will bring forward some of the driverless components, have those interface with the marketplace. Those are issues that are going to be important to us. Reducing fatalities on the road is something that we are very interested in. And when you hear that the self-driving or driverless-directed components can reduce, has the potential to reduce fatalities by 90 percent, that is something, as a mother and a grandmother, that really interests me because we all want to have those opportunities to make vehicles safer.    So, I think you for the time, Mr. Chairman. I thank you for going ahead and moving forward with this hearing and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rosekind</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rosekind. Chairman Burgess, Ranking Member Schakowsky, members of the committee, thank you for holding this meeting and for inviting me to testify.    At NHTSA, our mission is to save lives on America's roadways, and for 50 years we have carried out that mission by writing and enforcing regulations to make vehicles safer, fighting against drunk driving, building a national consensus about seatbelt use, and so many other efforts that have saved hundreds of thousands of Americans on our roadways but we have far more work to do and that work can be measured by some very alarming numbers.    In 2015, we lost 35,092 people on our public roads. And at NHTSA we know that that is not just a number. Those are mothers and fathers, brothers and sisters, coworkers, friends, colleagues. And the problem is getting worse. Last month, we announced that roadway fatalities in the first half of this year are up over ten percent.    And it is against this backdrop that the Department of Transportation, under the leadership of Secretary Anthony Foxx, has been working so hard on our efforts to accelerate the safe deployment of automated vehicle technologies. Because while automated vehicles carry enormous potential to transform mobility and reshape our transportation system, it is their awesome potential to revolutionize roadway safety that has us to motivated.    And there is one more number that helps explain why. That number is 94. That is the percentage of crashes that can be tied back to a human choice or error. That is a choice to speed or drive drunk, to send a text message from behind the wheel, or misjudge the stopping distance. That 94 percent represents the untold potential of automated vehicle safety technologies. We envision a future where advanced technologies not only help reduce crashes but a world with fully self-driving cars that hold the potential to eliminate traffic fatalities altogether.    The Federal Automated Vehicles Policy, which the Department issued on September 20th, is the world's first comprehensive government action to guide the safe and efficient development and deployment of these technologies.    And the policy covers four areas: One, vehicle performance guidance for automakers, tech companies, researchers and other developers, testers, and deployers of automated vehicle technologies; two, a model state policy to build a consistent national framework for the testing and operation of automated vehicles; three, an exploration of the use of our current regulatory tools that can be used to advance these technologies; and four, a discussion of possible new tools that the Federal government may need to promote the safe deployment of advanced technologies as the industry continues to develop.    I would like to share just a few thoughts about our approach. For 50 years, our traditional approach has largely been reactive. NHTSA prescribed safety standards and then responds to problems as they arise.    A traditional method of regulating these new technologies would be to engage solely in the rulemaking process, writing new regulations that prescribe specific standards, and typically, take years to take effect. Our view is that that approach would be slow. It would stymie innovation and it would stall the introduction of these new safety technologies.    Our policy takes a different path built on proactive safety which will better serve both safety and innovation. This policy allows us to work with automakers and developers on the front end to ensure there are sound approaches to safety throughout the entire development process.    This is a new approach and it is going to take some adjustment for everyone involved but we are confident that it will help us to accomplish two specific goals: first, to make sure that new technologies are deployed safely; and second, to make sure we don't get in the way of innovation. Our approach is not prescriptive. It does not tell developers how they must provide safety but, instead, builds a transparent and proactive approach to ensure that they are properly addressing the critical safety areas.    But that future is not without threats. As President Obama wrote when announcing the policy, ``the quickest way to slam the brakes on innovation is for the public to lose confidence in the safety of new technologies. Both government and industry have a responsibility to make sure that doesn't happen.''    It is our view the best way we can build that public confidence is by working together, showing the public that the government is on the side of innovation and that the industry is on the side of safety.    I will submit the balance of my statement for the record and I look forward to taking your questions. Thank you.</t>
   </si>
   <si>
@@ -79,6 +97,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I thank you, Mr. Chairman. I really apologize for being late this morning and I thank you for accommodating that and I look forward to the questions that we can ask of our witness.    I first want to take a moment to recognize a great loss in the auto safety community. On Thursday, Clarence Ditlow of the Center for Auto Safety passed away after a battle with cancer. For 40 years, Clarence led the Center for Auto Safety, where he was a tireless advocate for stronger and stronger auto safety standards. He fought for Lemon Laws to ease return of defective vehicles in all 50 states. And if you have ever had a recall on your vehicle, there is a decent chance Clarence was somehow involved in pushing the National Highway Traffic Safety Administration and automakers to take action. He provided tremendous insight to lawmakers over the years, including, as a witness before this very subcommittee.    Clarence continued fighting for consumers until his final days. As recently as September, he was working with my office on reducing the number of used cars sold with open recalls. He even weighed in on today's topic. In August, he wrote an op-ed on the importance of strong safety standards for self-driving cars. Clarence has an outstanding legacy but I know he saw much work still to be done. I can think of no better a tribute than to continue his fight to improve auto safety and I hope we can do so on this subcommittee.    Protecting consumers must be the key focus as we consider today's topic, self-driving cars. A car without a human driver could be an exciting development or a frightening proposition. Which one it is depends on whether we take the correct approach to the development of this technology.    One of the key arguments in favor of self-driving cars is safety. According to NHTSA, 94 percent of car crashes are caused, in part, by driver error. Automation does have the potential to help, ensuring that autonomous vehicles improve safety requires thorough testing and oversight. We must evaluate not only how the vehicles' features work but also the effect of those features on human behavior.    I appreciate NHTSA's efforts to be proactive in its approach to autonomous vehicles and I look forward to learning more about how its policy framework will work in practice.    As we think about the long-term potential of safe-driving cars, we also need to consider the intermediate challenge. We are not going to shift to 100 percent self-driving vehicles overnight. Even if this technology is adopted relatively quickly, we will see a transition period where traditional semi-autonomous and fully autonomous vehicles share the road. All those vehicles and their passengers must be able to safely interact. We should also recognize the impact the self-driving cars have on those who drive for a living, taxi drivers, chauffeurs, delivery men and truck persons, and truckers.    Automakers are still working through safety issues with autonomous vehicles. For example, two self-driving Teslas crashed this year. Cybersecurity is another critical area for autonomous vehicles to be successful. Hacking a self-driving car could put lives in danger. Developers must take the utmost precautions to prevent the cars' systems from being compromised and providing failsafe mechanisms of security measures are ever ineffective.    Accidents involving self-driving vehicles raise new questions. How safe must self-driving cars be before we are comfortable having them on the road? When something goes wrong, when is it the fault of the manufacturer and when is it the fault of the user? NHTSA is adapting its traditional approach to auto safety as it considers the design, use, and safety features of self-driving vehicles. I welcome this initiative but I want to ensure that safety remains paramount.    I also want to hear a firm industry commitment to safety and cybersecurity. As I said, innovation in self-driving cars has tremendous potential. If done right, this technology could save lives, increase energy efficiency, and provide convenience for consumers. We must make sure that the right policies are in place to achieve the maximum benefit from this technology. And again, I appreciate your indulgence and I yield back.</t>
   </si>
   <si>
@@ -88,6 +112,12 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. And good morning to you, Dr. Rosekind. I thank you and the other distinguished members of our panels who are appearing before us today on this important topic. And certainly, I thank you for your distinguished public service, Dr. Rosekind.    Automobile accidents accounted for over 35,000 fatalities in 2015, as you have indicated; 562 of those souls lost were from the State of New Jersey. By removing driver error, which accounts for the vast majority of these deaths, autonomous vehicles have the potential to be the single greatest achievement in auto safety in our lifetime, savings tens of thousands of lives each year.    As the subcommittee with jurisdiction over this topic and over the automotive industry, it is our job to make sure that innovation is allowed to occur and is not hindered by burdensome and unnecessary regulation while, of course, ensuring consumer safety which is paramount.    Dr. Rosekind, the guidance states that it is not intended for states to codify as legal requirements for the development, design, manufacture, testing, and operation of automated vehicles. That is on page 11 of the guidance. Do you think that states should be codifying the guidance as some have signaled they intend to do?</t>
   </si>
   <si>
@@ -139,6 +169,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman and thank you, Dr. Rosekind for being here today. We appreciate it a lot.    I understand the importance of self-driving cars, as we look for ways to dramatically improve traffic safety. In Kentucky, alone, we have had 761 fatalities last year. So, I know we need to better understand this issue.    But I had a chance to meet with the MTC truck driver training school in Elizabethtown. And of course, they are closely following the development of this new technology. And they brought this point up to me and I had never thought of it or considered it but I understand that there are homeland security issues, which have been raised in commercial transportation sector and it is this 15-point list on safety expectations for autonomous vehicles includes a point on digital security to prevent hacking into vehicle systems. I never would have thought of that until they brought that up.    And has NHTSA considered the broader homeland security issues surrounding digital security of autonomous vehicles?</t>
   </si>
   <si>
@@ -199,6 +235,9 @@
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. The gentleman yields back. The chair recognizes the gentleman from California, Mr. Cardenas, 5 minutes for questions, please.</t>
   </si>
   <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cardenas. Thank you. And thank you, Mr. Chairman for having this hearing. It couldn't be soon enough because this is moving very, very fast and hopefully we will have tremendous success not only to the manufacturers but to the consumers and everybody in-between.    Dr. Rosekind, my first question has to do with the timing. There is so much out there. Some people are saying we are going to see these cars on the road soon in limited or mass production, et cetera. What does soon mean from what your vantage point is? Are we looking at 2017, 2018, 2025? And if so, what is the likelihood of us seeing mass utilization on our public roads?</t>
   </si>
   <si>
@@ -226,6 +265,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    As Congressman Lance just talked about New Jersey last year, there were 821 driving fatalities in Indiana alone, which was a 10 percent increase from the previous year. But they, obviously, we talk about these big numbers but one particularly that happened in my district, Susan Jordan, who is the principal of Amy Beverland Elementary School served in Lawrence, Indiana, was killed tragically by a school bus that rolled in front of her, as she pushed children out of the way. And so for many families who have lost loved ones, I would say the auto industry and ensuring that cars, and buses, and other vehicles are as safe as possible, we need to not stand in the way of this innovation, whether it is pedestrian detection, lane warnings, pre-collision assist that can eliminate the human error that could save lives like Principal Jordan's.    I want to ask a question, though, with respect to NHTSA's Federal Automated Vehicle Policy where you are requesting large amounts of data from the auto industry on the operation and the execution of the highly autonomous vehicle technologies that includes a lot of potentially sensitive information about businesses and consumers. But on the other hand, we recognize, and you have just talked about it in response to Congressman Guthrie's question, multiple attacks from whether it is foreign or domestic bad actors attempting to get that data.    Without going into great detail, what kind of protections does NHTSA plan to have to ensure that this sensitive information isn't getting into bad actors' hands?</t>
   </si>
   <si>
@@ -289,6 +334,12 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. Doctor, good to see you again. Thank you for the work you are doing here.    I want to kind of follow-up a little bit on what my colleague from Indiana was questioning about. I think clarity is, obviously, very important and we don't want to be over burdensome on new technology. We don't want to stifle the entrepreneur that is going to be out there that is going to be making the investment because this is investment. It is an investment in an unknown area knowing where the regulators are going to fall into.    But I think we all are looking for just an idea of where the floor is. So, if they are going to be investing, they can be investing in the right direction. And so I would like you to speak a little bit on that. Where do you feel like the floor is going to be so we can move forward with this technology? I will be honest with you, I am not a big fan of it. I like driving. I mean my wife drives an SUV that has got the adaptive cruise. I can't stand it. Every time I get close to a line, it vibrates on my back side because of the seat and it just scares the living daylights out of me but I get it. My wife loves it.    And so I see the need for it for those that like the idea. So, as the technology moves forward, if you could give us some direction on where you are moving so we can work with you on it.</t>
   </si>
   <si>
@@ -346,6 +397,12 @@
     <t>412421</t>
   </si>
   <si>
+    <t>Kinzinger</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Thank you, Mr. Chairman. Just when you thought you were going to go home.    Thank you for holding the hearing today on autonomous vehicles. Next week is Thanksgiving or it is coming soon, I guess. Yes, next week. And as a country, we will put millions of miles on our vehicles. It reminds us that we need to do better as a nation to drive safer and reduce vehicle fatalities. As so many of our colleagues have pointed out, vehicle accidents are claiming too many lives and, as of late, that rate is growing in the wrong direction.    In Illinois, 998 lives were lost last year in vehicle accidents. Tragically, it is an increase of eight percent from the year before.    Like many in this room, I see great promise in how connected vehicles, assisted driving technology, and autonomous vehicle technology can play in reducing the number of vehicle deaths. I applaud NHTSA for laying out a framework that will allow automakers, software developers, and other stakeholders to blaze a path forward in transforming vehicles and making the roads in the future safer. I hope today's hearing is a starting point for our committee, as we consider the wide-ranging policy issues that autonomous vehicle technology touches.    But Dr. Rosekind, again, thank you for your service. Thank you for everything you have been doing. I would like to ask you about the Federal Automated Vehicles Policy released in September, as a few people have mentioned.    It mentions the possibility of convening the Commission to study liability and insurance issues and it also clearly states that insurance and liability apportionment are state responsibilities, as they are now and makes no argument for that change.    What role do you see auto insurance playing in the future?</t>
   </si>
   <si>
@@ -385,6 +442,12 @@
     <t>412250</t>
   </si>
   <si>
+    <t>Bilirakis</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you so much. I appreciate it. Thank you, Mr. Chairman. I thank the panel for their testimony.    I understand that NHTSA is thinking about future regulations requiring manufacturers to submit a safety assessment letter. Do you think that the safety assessment letter, if required, would preempt state laws and regulations regarding design and performance of autonomous vehicles?</t>
   </si>
   <si>
@@ -418,30 +481,45 @@
     <t xml:space="preserve">    Mr. Burgess. Welcome back. Thank you all for your patience and I thank our panel for taking the time to be here today. We will move into the second panel for today's hearing. We will follow the same format as the first panel. Each witness has 5 minutes for an opening statement, followed by questions from members.    For our second panel, we have the following witnesses: Mr. Mitch Bainwol, President and CEO for the Alliance of Automobile Manufacturers; Mr. Kirk Steudle, Director at Michigan Department of Transportation; Ms. Laura MacCleery, Vice President of Consumer Policy and Mobilization at Consumer Reports; Ms. Ann Wilson, Senior Vice President at the Motor and Equipment Manufacturers Association; and Mr. Gary Shapiro, President and CEO at the Consumer Technology Association.    We do appreciate you all being here today. Mr. Bainwol, why don't we begin with you? You are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
+    <t>Bainwol</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bainwol. Thank you, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, thanks for having me back to testify today on behalf of 12 iconic automakers, who are engaged in a massive exercise in self-disruption.    I spent 8 years in the music industry as a digitization of the music wrecked business model and devastated property rights. There was little that industry could do. Autos are in a very different spot, we are manufacturers and technology companies and mobility providers and we are innovating rapidly.    Three converging trends are driving dynamic change. The first trend is the rapid emergence of crash avoidance technologies that will culminate in self-driving cars.    The second trend is the evolution of ride and car-sharing starting with Uber, Lyft, Car2Go, and others, but swiftly moving to a wide range of other models. Sharing will reduce ownership rates to some degree but also shorten fleet age.    And the third trend is the gradual evolution in power trains toward electrification that, in the present low gas cost context, is being driven more by policy mandates than by consumer demand.    Combined, these trends are changing mobility profoundly and as mobility changes, the overriding goal of my members share is to ensure that consumers are able to afford these vehicles that offer a higher efficiency and enhanced safety features. The faster we can safely and affordably move to the future, the better.    While the introduction of self-driving cars is just around the corner, the transition of full autonomy will take two generations. Moody's predicts these cars will not be a majority of the fleet until 2045 or ubiquitous until 2055.    But the important fact is that benefits already are materializing. First, safety: 99 percent of road fatalities are the result of behavioral issues, environmental circumstances, and infrastructure limitations, rather than car defects. Technology addresses many of these challenges by helping to avoid crashes altogether. Elon Musk says that moving too slowly will kill people. I might say it less provocatively and Tesla is not a member but he has a point. We need to lean forward.    Second, technology can reduce carbon and strengthen the environment both by mitigating congestion and by facilitating more efficient use of the automobile.    Third, technology can enhance access for the young, the old, the disabled, and the economically disadvantaged.    Fourth, individuals and businesses will benefit from time savings and meaningful productivity gains, helping society and the economy.    Fifth, the combination of lower per mile cost and higher cost utilization rates resulting from ride-sharing has the potential to reshape mass transit. For all of these reasons, most stakeholders believe accelerated deployment is highly desirable subject to ensuring a material net safety gain. But we also know that the traditional regulatory mechanisms can't handle the space of innovation.    Administrator Rosekind and Secretary Foxx put their fingers on this problem and deserve considerable credit for seeking a new approach, facilitating the proper mix of oversight and regulatory flexibility. It is not an easy puzzle and we understand that committee members will have different visions about what it means to be nimble and flexible while also offering predictability and stable roles.    We are carefully examining NHTSA's guidance and will formally respond a week from today at the deadline. That response will be shared with that committee. And we fully expect the Trump administration to put a stamp on this policy. Congress ought to as well.    The feds have traditionally regulated the car, the states, the driver. With autonomy, the car is the driver and that, in essence, creates static between the Federal and state obligations.    Perhaps the key objective behind NHTSA's recommendation was to provide federal leadership to avoid a patchwork of state rules. Yet, the early evidence is it still might be necessary to further strengthen the federal leadership. Some even have suggested that a state-level time out might be warranted.    A second key objective was to reduce federal regulatory rigidity and ambiguity. Some of the rigidity has been addressed with commitments to timely respond to requests for interpretations and exemptions but too much ambiguity remains. Policy often seems simple but when it gets to execution and compliance, that simplicity morphs into numbing complexity and complexity equals delay, higher costs and delayed social benefits.    Finally, another key objective was to provide mechanisms to better share data and learning to class both OEMs and tech providers. It is a prudent goal. We are not certain, however, that all contemplated obligations are feasible and productive.    Summing up, we appreciate this committee's initiative to help accelerate the smart introduction of these lifesaving carbon-reducing, economy-enhancing technologies. This is guidance, voluntary for now at the federal level and mandatory, effectively at the state level triggers this conversation. We welcome it because the stakes are high and the opportunity is enormous. Government must pave the way for technology deployment and must not, despite good intent, become an obstacle to realize in the brighter future of mobility.    I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. Mr. Steudle is recognized for 5 minutes, please, for an opening statement.</t>
   </si>
   <si>
+    <t>Steudle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Steudle. Thank you, Mr. Chairman and members of the committee. It is an opportunity to sit in front of you. I appreciate that opportunity to talk about something that is truly revolutionary in the transportation industry, that is, connected and autonomous and automated vehicles.    At the Michigan Department of Transportation, safety is paramount. It defines everything the department does, from road and bridge design, to managing worksites, to overseeing the work of contractors. Some 35,000 people have died on America's roads, as many of you have noted. In Michigan, that number was 963 last year. Today, it is 921. That is highest in the last couple of years. That is the equivalent of 350 airline crashes with 100 passengers. Imagine what the outcry would be if that was happening.    As has been said, 90 percent of the traffic deaths could be reduced with this technology and I think for that alone is the reason we should be pursuing this at a very advanced pace.    The exponential advent of technology shows no sign of slowing down. The technology both enables and demands multitasking. Despite the ever-evolving laws and prolific safety messages, distracted driving continues to cause more crashes and more injuries and deaths as a result of those crashes. Automakers have made tremendous strides in building safer vehicles, seatbelts, air bags, antilock brakes, lane control systems, adaptive cruise control, advanced braking systems, and the like.    But even while the technology and research continues to save lives, the discovery of new distractions offset the gain. Today, more than 68 percent of U.S. adults have a smart phone. That is up from 35 percent just 5 years ago and the use of electronic devices is just one of the categories in a growing list of driver distractions.    But I am not here to preach about driving distractions. If we refuse to accept the increasing number of our friends and loved ones that needlessly die in automobile accidents, we need to look for a solution and the solution is automated vehicles, a vehicle that removes the driver and the driver error.    While safety is the overriding imperative, there are other vital benefits to automated or driverless cars. Chief among them are the extension of the freedom that comes with personal mobility and personal mobility in our golden years. If any of you have had the misopportune or the unfortunate opportunity of being in a position to take the keys away from your parent or an elderly resident, you know how painful that can be. My state has one of the oldest populations in the country. According to the 2010 census, 14 percent of the residents were over the age of 65. Driverless cars offer us the opportunity to grant all this precious autonomy to our full range of residents, not just those between the ages of 16 and 80 or 85 or 90.    They also have the ability to fundamentally change the way that people and goods move. Ride sharing is already having an impact on urban life, as more people choose that option, freeing up their time and their disposable income. This presents many questions about the future land use, parking, consumption of fossil fuels, the evolution of public transit and many others.    I should emphasize some key things going on back in the state of Michigan. With overwhelming bipartisan support, the legislature last week adopted and sent to Governor Snyder a package of bills that will keep Michigan at the forefront of these developments. Chiefly, the bills do these things: they allow for complete autonomous operations on any road at any time, without a special license; they allow for truck platooning; they allow for on-demand automated networks, which are driverless Ubers, driverless Lyfts; and it creates a council on future mobility made up of industry participants from a broad range.    As for NHTSA, I think the agency has done a good job of identifying and distinguishing between the state and the Federal regulatory roles related to automated vehicles. States would regulate the driver or the operator. Those regulators currently vary by state, much like graduated drivers' licenses and the effects of penalties for impaired drivers. The Federal government has a long history of vehicle regulations for the OEMs, the original equipment manufacturers, and that should continue. But Michigan strongly disagrees with the proposed third-party certification process that would create a middle man, which would slow progress and the adoption of lifesaving innovations. It also would introduce a third party into the liability equations.    This technology is best tested and validated by those that have developed it and understand the technology. They should be responsible for what they include in the vehicles and not get rid of that responsibility by hiding behind a third-party tester.    Thank you for the opportunity to testify on this important topic. I applaud you for taking up this and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentleman. Ms. MacCleery, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
+    <t>MacCleery</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. MacCleery. Thank you. Good morning, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee.    My name is Laura MacCleery and I work for Consumer Reports, an independent nonprofit that works side-by-side with consumers to create a fairer, safer, and healthier world.    I want to start by thanking Ranking Member Schakowsky in honoring the late Clarence Ditlow. As both a former board member of Consumer Reports and leader of the Center for Auto Safety, my friend and colleague, Clarence, made immeasurable contributions to vehicle safety and was responsible for countless lifesaving recalls. His dogged persistence was legendary. His accomplishments spanned decades.    At Consumer Reports, we consider it a privilege to carry forward his and our shared dedication to safer cars.    As we have heard, traffic deaths on U.S. roads are increasing, reversing a long-standing decline. We urgently must find ways to both prevent and reduce traffic deaths and injuries. It is critical to note at the outset that improvements to crashworthiness that would allow people to better survive crashes remain far from exhausted. For example, although the Research Safety Vehicle designed by NHTSA in the last 1970s was crash-safe at 50 miles per hour, today the minimum safety standard for frontal impact is only 30 miles per hour with 35 miles per hour testing in the new car assessment program. This occupant protection standard is one of several NHTSA performance standards that are badly out of date and should be upgraded.    If we know anything, it is that technology is imperfect. Making vehicles safer when they do crash should go hand-in-hand with making them smarter.    We certainly recognize the potential for crash avoidance technologies to also reduce traffic deaths. Consumer Reports Auto Testing Team has driven thousands of miles in cars that can steer within a lane and adjust speed automatically using increasingly prevalent technologies like automatic emergency braking and lane-keeping assist. We also have seen that these technologies are not perfect and vary in quality among manufacturers and that some raise novel risks. What we hear again and again in this context about safety gains is we are saying clearly that the safety benefit of fully self-driving vehicles are simply, at this point, not known.    There are real limits to current technologies. There is a handoff problem in communications with consumers and letting them know when they need to take over vehicle functioning. There is issues with user interface and with software updates that may or may not be clear to consumers who are using their vehicles. And there are profound and fully knotty ethical implications of algorithms.    A reality check is provided by our testing, which shows performance issues with current technologies in sunny, rainy, snowy, or icy conditions. That is a lot of weather to challenge these systems.    As this suggests, there is much work that needs to be done before cars drive themselves. Automated driving technologies cannot and should not be oversold, particularly when consumers still must be prepared to take over the controls. Failing to appropriately communicate the limits or design systems with appropriate checks on foreseeable use and misuse of systems can give consumers a false sense of security and even cost lives. As more vehicles with automated driving technologies hit the market, we will carefully evaluate them and report to consumers on their safety. For its part, NHTSA should ensure that companies put consumers first by collecting and publishing data and what has collected sufficient evidence by setting robust safety standards.    The agency has indicated the Federal Automated Vehicles Policy guidance is an initial regulatory framework. It covers a wide range of subjects but we think it is light on specific choices that companies should make to assure safety. We urge lawmakers to take three key steps. First, to recognize that NHTSA remains chronically under-resourced. To improve and ensure consumer trust in automated vehicles, the agency must receive its requested funding so it can independently and thoroughly assess the safety of these systems.    Members should also recognize a few fundamental steps needed to assure effective oversight of automated driving. Here are three: We call on companies first to give their safety data to NHTSA and the public. Dr. Rosekind indicated that the data would show what is best. That makes sense but right now, the safety benefits of autonomous driving are speculative and based on data held entirely by the companies. Regulators and consumers both deserve to know the basis the companies use to determine that an automated technology is safe, particularly if they are making claims that this technology performs more safely than human drivers.    Second, NHTSA's enforcement capability should be strengthened. NHTSA has the authority to deem automated system risks to be safety-related defects but its practical ability to get unsafe cars off the road quickly has long been limited and is challenged in a world of instant software updates. Congress should give the agency imminent hazard authority so that it can take immediate action.    Third, NHTSA and other relevant agencies must take a hard look at the risks of a lack of cybersecurity in vehicles. The recent Dyn attack raises the question of what must be done to safeguard consumers and this issue can't wait.    NHTSA has repeatedly requested imminent hazard authority, I will note, and it is part of Ranking Member Schakowsky's Vehicle Safety Improvement Act, which we support.    In conclusion, automated innovation is essential. It has included features with major benefits to consumer safety, such as automatic emergency braking. But our ambitions in this area must be balanced with accountability and a full view of how humans interact with this technology. Building public trust is critical. Public data, vigorous agency oversight, and attention to a total-vehicle and consumer-first approach will be needed to ensure that safety keeps pace with technological change.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentlelady. Ms. Wilson, you are recognized for 5 minutes, please, for an opening statement.</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wilson. Chairman Burgess, Ranking Member Schakowsky, members of the subcommittee, my name is Ann Wilson and I serve as the Senior Vice President of Government Affairs for the Motor and Equipment Manufacturers Association or MEMA.    Thank you for the invitation to testify before you today on automated vehicles and NHTSA's Automated Vehicle Policy.    MEMA is the leading international trade association of the fast-changing mobility industry. By directly employing more than 800,000 Americans and generating a total employment impact of 4.2 million jobs, MEMA member companies are the largest employer of manufacturing jobs in the U.S.    MEMA applauds NHTSA for developing the Federal Automated Vehicle Policy. Given the rapidly evolving advances in vehicle technologies, we believe this policy, as opposed to regulations, that clarifies a national framework with a clear role for the states sets pathways for all stakeholders to navigate the complexities of automated vehicle technologies.    We are currently working with our members to provide NHTSA with specific comments by November 22nd and we will provide those comments to the subcommittee.    We are also committed to a continuous dialogue with NHTSA on the AV policy. However, we urge NHTSA to clarify the policy in the near-term with the input received from the public listening sessions and the written comments.    Today, I wanted to lay out a few challenges and opportunities MEMA has already identified. First, MEMA would strongly urge the agency to treat test vehicles covered by the AV policy separately from production vehicles. Typically, these vehicles are company-owned and operated only by trained employees and are not intended for production and sale to the general public. For instance, it is not clear in the policy whether NHTSA intends component manufacturers or other entities should apply for exemptions for test vehicles in order to test and evaluate Level 2 through 5 systems on public roads.    With the rapid evolution of these technologies, time is critical. The process outlined in the AV policy for test vehicles, including the exemption process, would delay innovation.    We also have some serious concerns about the protection of manufacturers' intellectual property rights during the testing phase.    We are also seeking an additional clarification with respect to test vehicles. Under Section 24404 of the recently enacted FAST Act, OEMs can test and operate vehicles that do not meet Federal Motor Vehicle Safety Standards, provided they are not offered for sale. But this provision does not include component manufacturers and we would urge the committee to clarify this provision at the first opportunity.    Second, in 2015, MEMA and the Boston Consulting Group released a report examining the safety benefits of Advanced Driver Assistance Systems or ADAS technologies. The study found that these technologies can provide immediate safety benefits and formed a pathway, as you have heard, to a partially and fully automated vehicle fleet that could virtually eliminate traffic fatalities. But it is important to note that some of these ADAS technologies constitute the SAE Level 2 automated systems. These include technologies, as you have heard today, like AEB, adaptive cruise control, and others. Technology is currently available on a wide range of vehicles. MEMA urges NHTSA to further delineate the impact that the AV Policy has on Level 2 technologies.    Third, as previously recognized, NHTSA's AV Policy also applies to all vehicles. While much of the testimony you have heard today is directed towards the automotive industry, many of the opportunities and challenges apply to both passenger and commercial vehicles. The commercial vehicle component supplier members of MEMA are particularly concerned about the IP protection as safety systems and other new technologies are key differentiators for trucking fleets. There are many other parties in the commercial market who must be engaged in the development and implementation of AV Policy for all the challenges and benefits to be fully explored. We encourage NHTSA to continue interacting with those parties and we would encourage this committee to work with them, too.    Fourth, original equipment component suppliers do not always have complete visibility into the full scope of issues to properly assess performance. Once a component or a system has been integrated into a protection vehicle, it is important that all stakeholders have a clear understanding of NHTSA's expectations of the roles and responsibilities, particularly for OEMs and component manufacturers. These distinctions should be clarified and articulated in the context of the policy.    And finally, MEMA encourages NHTSA to take the lead with their global counterparts to cooperate in developing an AV policy beyond the U.S. for the benefit of the global community. The earlier we get ahead of opportunities to align, the better it will be for all stakeholders, government, industry, and the driving public.    In conclusion, the members of MEMA are committed to vehicle safety and are at the forefront of developing additional lifesaving technologies.    We appreciate this opportunity to testify and I would be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The chair thanks the gentlelady.    Mr. Shapiro, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
+    <t>Shapiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shapiro. I am Gary Shapiro, President and CEO of the Consumer Technology Association. I just want to thank you, Mr. Chairman Burgess and Ranking Member Schakowsky, and members of the subcommittee as well for inviting me to testify on this important issue.    I also want to thank you for hosting these Disrupter Series. This is really important. You have brought attention to new technologies like 3D printing and drones, which are fundamentally changing the world. Actually, at CTA we created a Disruptive Innovation Council last year and it supports those companies that are developing technologies and services that are disrupting traditional business models, actually creating new markets, and, frankly, delighting consumers. So, this is a good thing. That is what this country was based on is positive disruption.    And that is what we are talking about here. We actually represent over 2,200 American consumer technology companies. We own and produce the CES. It is the world's largest business, coolest, funnest event. You are all invited to attend. If you come to Las Vegas next January you will see literally 3,900 companies, including 300 of them that are focused on connected vehicles, driverless cars. Most of the major auto companies are there as well. And you will see the future right there in one place.    We also, as an association, represent much of the vehicle technology ecosystem. Our member companies are fundamentally revolutionizing the transportation network and are well on their way to making self-driving vehicles a reality.    This comes about because the internet, wireless, and sensing technology are poised to revolutionize the auto sector, as they have other industry sectors. While these changes disrupt all business models, they lead to economic growth, a better standard of living, improved health and safety, and new opportunities to expand entrepreneurship, provide American leadership and solve real-world major problems.    You have heard over and over today about self-driving cars that will save over 30,000 lives a year and prevent hundreds of thousands of injuries. They will also free up our time, enhance the travel business so more Americans will use cars to travel further and see America and actually change our view of cars so they will be a service, rather than a product.    So, I think what we should do is set a goal of cutting American road fatalities by a certain date and challenge interested groups to gather and forge a path forward to solve the many legal, legislative and standardization uncertainties to achieve that outcome.    One question that has already come up today and people are asking is whether this technology must be perfect before it deployed. Perfection may be an unreachable goal but any significant improvement over the status quo of 35,000 annual deaths should be welcome. In fact, though, as you have hard, driver assist technology is already saving lives, avoiding accidents, and paving the way for driverless innovations. We welcome and need technologies that help drowsy or inattentive drivers stay focused or provide specific responses, such as automatic braking and lane drift avoidance, all of which are available in newer models today.    Further, the aftermarket industry does provide a valuable service in allowing consumers to add lifesaving technology to vehicles they already own and that is important because if we wait for the whole fleet to turn over, we are waiting 20 or 30 years to save those thousands of lives of each year.    Our research we have done with consumers confirms there is strong interest in the early stages of self-driving technology. We did a recent study with 2,000 consumers and three in four are excited about the benefits of self-driving cars. More than 60 percent are interested in replacing the car or truck they own with a completely self-driving vehicle.    Of course, you have heard, transportation is a national system. We need uniformity to ensure a national single market, promote safety, and provide consistency.    CTA was encouraged by NHTSA's Federal Automated Vehicles Policy and its recognition of the need for self-driving vehicles. More, NHTSA recognized the importance of flexibility for the industry to continue to innovate with appropriate supervision at the state and Federal level. We appreciate the leadership, however, we do have several concerns with the policy, which we will be filing formal comments on.    While DOT is a primary regulator for self-driving vehicles, other agencies also have a role. Representatives from the NTIA, the FCC, FDC, DoD, and others have asked how they can provide input for their needs, contribute their expertise on spectrum, interoperability, cybersecurity, and privacy, and simply stay informed.    And I applaud the DOT for taking a leadership role and seeking broad input but consensus, national consensus on self-driving vehicles is so important that we need all the believers and the stakeholders together working towards a national goal of saving lives and resolving impediments to get there. This action requires government facilitation and leadership at the very top. We did this, and I was personally involved with our shift to high-definition television, and also did it as we created commercial rules for the internet. The U.S. led the world in both those endeavors because we had industry together, all the interested parties working with government. The result for both has been huge boots in U.S. leadership in content creation and commercial internet ventures.    Self-driving vehicles would be our gift to future generations. They will result in fewer deaths and injuries, a cleaner environment, more freedom and greater mobility. If industry and government work together on a shared national goal, we can remove every impediment and stop the carnage on American roads.</t>
   </si>
   <si>
@@ -626,6 +704,12 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Both the tech industry and the automotive industry have been working towards fully automated vehicles for years now but many consumers remain unaware of the technology and its potential to decrease fatalities, improve mobility for seniors and the disabled, and improve daily life for Americans.    So, I wanted to ask Ms. MacCleery, there has been a lot of attention paid in Congress and in the media on autonomous cars. We have heard claims that these cars will be available for purchase soon but we have also heard that fully autonomous cars are decades away. What is the realistic time line for adoption and is this something consumers should be paying attention to now or is this decades away?</t>
@@ -1058,7 +1142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,7 +1150,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,5093 +1172,5966 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>127</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G94" t="s">
+        <v>127</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G96" t="s">
+        <v>127</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G98" t="s">
+        <v>127</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G104" t="s">
+        <v>142</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G106" t="s">
+        <v>142</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>109</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>109</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s">
+        <v>127</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>109</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>127</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>161</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>164</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>167</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G125" t="s">
+        <v>51</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>155</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>51</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>164</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G129" t="s">
+        <v>51</v>
+      </c>
       <c r="H129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>164</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G131" t="s">
+        <v>51</v>
+      </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>167</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>51</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>167</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
       <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
+        <v>161</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
       <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>161</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
       <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>161</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I142" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
       <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>161</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
       <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>161</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
       <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>161</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
       <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>161</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
       <c r="H152" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>161</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>27</v>
+      </c>
       <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>167</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
       <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>167</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
       <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>167</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>161</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
       <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G163" t="s">
+        <v>167</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I164" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>167</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
       <c r="H166" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>90</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G168" t="s">
+        <v>106</v>
+      </c>
       <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I168" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>167</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>90</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G170" t="s">
+        <v>106</v>
+      </c>
       <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>167</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>90</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G172" t="s">
+        <v>106</v>
+      </c>
       <c r="H172" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>167</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>90</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G174" t="s">
+        <v>106</v>
+      </c>
       <c r="H174" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>167</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>90</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G176" t="s">
+        <v>106</v>
+      </c>
       <c r="H176" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I176" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>167</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>90</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G178" t="s">
+        <v>106</v>
+      </c>
       <c r="H178" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>167</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>90</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G180" t="s">
+        <v>106</v>
+      </c>
       <c r="H180" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>167</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>90</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G182" t="s">
+        <v>106</v>
+      </c>
       <c r="H182" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>167</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>90</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G184" t="s">
+        <v>106</v>
+      </c>
       <c r="H184" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>203</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G186" t="s">
+        <v>230</v>
+      </c>
       <c r="H186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I186" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G187" t="s">
+        <v>161</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>203</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G188" t="s">
+        <v>230</v>
+      </c>
       <c r="H188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I188" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>161</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>203</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G190" t="s">
+        <v>230</v>
+      </c>
       <c r="H190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I190" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>167</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>203</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G192" t="s">
+        <v>230</v>
+      </c>
       <c r="H192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>164</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>203</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G194" t="s">
+        <v>230</v>
+      </c>
       <c r="H194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>161</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>203</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G196" t="s">
+        <v>230</v>
+      </c>
       <c r="H196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I196" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>155</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G200" t="s">
+        <v>158</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G201" t="s">
+        <v>161</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G202" t="s">
+        <v>164</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>167</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G206" t="s">
+        <v>167</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G208" t="s">
+        <v>155</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
       <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>167</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>231</v>
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400032</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Blackburn</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Lance</t>
   </si>
   <si>
@@ -704,6 +719,9 @@
   </si>
   <si>
     <t>400308</t>
+  </si>
+  <si>
+    <t>Ex Officio</t>
   </si>
   <si>
     <t>Pallone</t>
@@ -1142,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +1168,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,5963 +1193,6412 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+      <c r="H14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I78" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>160</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>158</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>161</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>166</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>164</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>169</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>167</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>172</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>155</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>160</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>164</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>169</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>164</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>169</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>167</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>172</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H133" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>167</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>172</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H136" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>166</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H138" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>166</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I140" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>166</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>161</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>166</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>161</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>166</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>161</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>166</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>161</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>166</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I150" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>161</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>166</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H152" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" t="s">
-        <v>161</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>166</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H154" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I154" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>167</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>172</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H156" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I156" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>167</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>172</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H158" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I158" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>167</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>172</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I160" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" t="s">
-        <v>161</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H162" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I162" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
-      </c>
-      <c r="G163" t="s">
-        <v>167</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>172</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H164" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I164" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
-      </c>
-      <c r="G165" t="s">
-        <v>167</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>172</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H166" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I166" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G168" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I168" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>167</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>172</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G170" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I170" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s">
-        <v>167</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>172</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G172" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H172" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I172" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>167</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>172</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G174" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I174" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>167</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>172</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G176" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I176" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>167</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>172</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G178" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I178" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>167</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>172</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G180" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>167</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>172</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G182" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I182" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>167</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>172</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G184" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I184" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G186" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H186" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I186" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>161</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>166</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G188" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H188" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I188" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>161</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>166</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G190" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I190" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>167</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>172</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G192" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H192" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I192" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J192" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>164</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>169</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G194" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I194" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J194" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>161</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>166</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G196" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I196" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J196" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
-      </c>
-      <c r="G198" t="s">
-        <v>155</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>160</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" t="s">
-        <v>158</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>163</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>161</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>166</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
-      </c>
-      <c r="G202" t="s">
-        <v>164</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>169</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>22</v>
-      </c>
-      <c r="G204" t="s">
-        <v>167</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>172</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>22</v>
-      </c>
-      <c r="G206" t="s">
-        <v>167</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>172</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" t="s">
-        <v>155</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>160</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J209" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" t="s">
-        <v>167</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>172</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I211" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J211" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I213" t="s">
-        <v>259</v>
+        <v>16</v>
+      </c>
+      <c r="J213" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
